--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln3-Rxfp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rln3-Rxfp2.xlsx
@@ -558,10 +558,10 @@
         <v>0.000437</v>
       </c>
       <c r="O2">
-        <v>0.007621206836414369</v>
+        <v>0.00762120683641437</v>
       </c>
       <c r="P2">
-        <v>0.00762120683641437</v>
+        <v>0.007621206836414371</v>
       </c>
       <c r="Q2">
         <v>0.0001027250073333333</v>
@@ -570,10 +570,10 @@
         <v>0.000924525066</v>
       </c>
       <c r="S2">
-        <v>0.007621206836414369</v>
+        <v>0.00762120683641437</v>
       </c>
       <c r="T2">
-        <v>0.00762120683641437</v>
+        <v>0.007621206836414371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>0.003259</v>
       </c>
       <c r="O3">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="P3">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="Q3">
         <v>0.0007660887846666668</v>
@@ -632,10 +632,10 @@
         <v>0.006894799062000001</v>
       </c>
       <c r="S3">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
       <c r="T3">
-        <v>0.05683641437042204</v>
+        <v>0.05683641437042205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,7 +676,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01788133333333334</v>
+        <v>0.01788133333333333</v>
       </c>
       <c r="N4">
         <v>0.053644</v>
